--- a/data/trans_bre/P1427-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1427-Dificultad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>2.187273933145062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.003387243978707</v>
+        <v>2.003387243978708</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.1744782571420248</v>
@@ -627,7 +627,7 @@
         <v>3.357103668854378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6137001556786225</v>
+        <v>0.6137001556786227</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.086952713286773</v>
+        <v>-1.012989417016166</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.094520837238361</v>
+        <v>1.180582490425883</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02979599924470739</v>
+        <v>-0.05054177884734042</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3226114600349018</v>
+        <v>-0.3136585053995725</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8484435303923422</v>
+        <v>1.105255344676001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.03406219321029022</v>
+        <v>-0.03864355380773678</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.917511406384161</v>
+        <v>1.841141826263678</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.248915497765998</v>
+        <v>3.417041737680567</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.892417130511076</v>
+        <v>3.929370126014632</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.120402436860533</v>
+        <v>1.067232136836678</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8.440244432332713</v>
+        <v>9.769580531924497</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.635734613319565</v>
+        <v>1.701924503667045</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.5171477507324761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.332118999846302</v>
+        <v>1.3321189998463</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.9583153623988878</v>
@@ -709,7 +709,7 @@
         <v>0.3925942466361367</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3996796737946537</v>
+        <v>0.3996796737946532</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.02819095951463977</v>
+        <v>0.002514518828808435</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5451014795110055</v>
+        <v>-0.6084215522922917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1016069595160841</v>
+        <v>0.02771379647511479</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1037823440800601</v>
+        <v>-0.04745439529328385</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3322893328833667</v>
+        <v>-0.3514889366566852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01407830374989813</v>
+        <v>-0.02665483244555019</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.569875344699253</v>
+        <v>2.585469931030957</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.675595728779452</v>
+        <v>1.592691289206359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.654785070750259</v>
+        <v>2.750127628460116</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.840830487794111</v>
+        <v>2.950803249360847</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.976575654399968</v>
+        <v>1.736942413762379</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.015254732388291</v>
+        <v>1.010796395206306</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.07874944875936145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.407746599091837</v>
+        <v>1.407746599091838</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.247295071104952</v>
@@ -791,7 +791,7 @@
         <v>0.06199193632538925</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5973604906428419</v>
+        <v>0.5973604906428424</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9987781157715998</v>
+        <v>-0.9644767272970357</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.098636320890676</v>
+        <v>-1.005779328548252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2866416816307095</v>
+        <v>0.2487799919400562</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3763566764656526</v>
+        <v>-0.3623280679350633</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6357845103442337</v>
+        <v>-0.6076999640049314</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08886345947872167</v>
+        <v>0.06653184465263383</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.02355577101152</v>
+        <v>1.975040646522447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.306424754808745</v>
+        <v>1.306249334390144</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.590391272132512</v>
+        <v>2.563222638414318</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.50377012759923</v>
+        <v>1.427222087818534</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.863347809295167</v>
+        <v>1.800308390031651</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.372877426810282</v>
+        <v>1.421608389486931</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.814088365651333</v>
+        <v>-2.084223228037594</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1078796001149721</v>
+        <v>0.1535793609632813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.266274926917667</v>
+        <v>-1.071585576708151</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6644742453232927</v>
+        <v>-0.7088914790409573</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07094469381613087</v>
+        <v>-0.06370666487238001</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2737298282299662</v>
+        <v>-0.2374693094981056</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.026711003012039</v>
+        <v>2.12311330618811</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.149564835306642</v>
+        <v>4.028477667037564</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.039199472533381</v>
+        <v>2.054875756352982</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.032340830241516</v>
+        <v>1.870276068331782</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.008300261892078</v>
+        <v>7.088589590581138</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6732730988555305</v>
+        <v>0.6691065600875216</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.0568829561100596</v>
+        <v>-0.05326791548293681</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5727561320375731</v>
+        <v>0.6229462043643633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5274681901506918</v>
+        <v>0.5297798409450135</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.02723871612610606</v>
+        <v>-0.03754201943635335</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4195687118093564</v>
+        <v>0.4357052422082755</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1444417322810671</v>
+        <v>0.1489744363496538</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.397237715960927</v>
+        <v>1.419570333124081</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.861467236304907</v>
+        <v>1.879838911691365</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.977244647559125</v>
+        <v>2.039484690681873</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.8526432359455377</v>
+        <v>0.8437592735802035</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.293826338842805</v>
+        <v>2.251255764575331</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7071736401432751</v>
+        <v>0.7190012463877331</v>
       </c>
     </row>
     <row r="19">
